--- a/data/trans_camb/P16B13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-38,78</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,95</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-80,86; -7,64</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,97; 9,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,81</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-80,86; -7,64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 76,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 76,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,08; 10,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 53,39</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,72</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,82; 33,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,72; 36,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,8; 56,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 56,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,81; 28,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,45; 32,03</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,97%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,26; 59,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,02; 62,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; 122,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 131,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,48; 46,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; 48,73</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-10,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,05</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-31,85; 0,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,8; 17,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 10,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,46; 7,54</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,21%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-31,85; 0,0</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 76,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,8; 20,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 11,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 8,17</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,83</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,83; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,34; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,67; 12,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,95; 5,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,39; 2,88</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,07%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,83; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,34; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 14,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 29,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 5,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,26; 2,96</t>
         </is>
       </c>
     </row>
@@ -1230,27 +1230,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,83; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,57; 12,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,77; 6,16</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,3%</t>
         </is>
       </c>
     </row>
@@ -1344,27 +1344,27 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,83; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 29,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 14,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 6,59</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 12,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 5,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 6,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 7,01</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 14,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 6,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 7,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 7,57</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 2,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 5,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 8,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 6,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 4,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 4,89</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 3,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,34; 5,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 9,33</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 7,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 4,62</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 5,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,36</t>
+          <t>0,0; 16,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,7</t>
+          <t>-12,69; 7,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 6,68</t>
+          <t>0,0; 11,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 7,01</t>
+          <t>-7,2; 5,03</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>-0,01%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 14,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,33</t>
+          <t>0,0; 19,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 6,04</t>
+          <t>-12,87; 7,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,2</t>
+          <t>0,0; 13,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 7,57</t>
+          <t>-7,24; 5,36</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,3</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 2,91</t>
+          <t>-6,45; 22,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 5,42</t>
+          <t>0,0; 28,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,25</t>
+          <t>-2,76; 9,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,89</t>
+          <t>0,0; 9,5</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>2,35%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-6,47; 29,21</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 39,71</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 9,93</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-10,62; 2,91</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-9,14; 5,42</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 8,42</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 6,75</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 4,25</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 4,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-4,03%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-10,93; 3,04</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-9,34; 5,86</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-0,18; 9,33</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-2,31; 7,42</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-3,35; 4,62</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-3,89; 5,26</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Edad-trans_camb.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-80,86; -7,64</t>
+          <t>-81,39; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,45</t>
+          <t>0,0; 43,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,45</t>
+          <t>0,0; 43,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 9,28</t>
+          <t>-48,87; 9,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,81</t>
+          <t>0,0; 34,55</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,86; -7,64</t>
+          <t>-81,39; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,83</t>
+          <t>0,0; 75,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,83</t>
+          <t>0,0; 75,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,08; 10,3</t>
+          <t>-55,35; 10,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,39</t>
+          <t>0,0; 52,78</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 33,51</t>
+          <t>-35,08; 33,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,72; 36,23</t>
+          <t>-41,82; 39,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 56,08</t>
+          <t>-15,19; 49,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,86</t>
+          <t>0,0; 57,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 28,42</t>
+          <t>-21,24; 28,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 32,03</t>
+          <t>-17,94; 32,36</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 59,37</t>
+          <t>-38,86; 63,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,02; 62,19</t>
+          <t>-48,77; 64,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 122,14</t>
+          <t>-15,44; 109,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 131,8</t>
+          <t>0,0; 134,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 46,48</t>
+          <t>-23,04; 46,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 48,73</t>
+          <t>-19,1; 50,57</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 0,0</t>
+          <t>-31,64; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,22</t>
+          <t>0,0; 42,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 17,6</t>
+          <t>-38,23; 17,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 10,26</t>
+          <t>-8,92; 11,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 7,54</t>
+          <t>-20,98; 7,2</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 0,0</t>
+          <t>-31,64; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,12</t>
+          <t>0,0; 73,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 20,8</t>
+          <t>-43,6; 20,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 11,11</t>
+          <t>-8,98; 13,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 8,17</t>
+          <t>-21,35; 5,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 0,0</t>
+          <t>-32,58; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 0,0</t>
+          <t>-57,72; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 12,4</t>
+          <t>-11,03; 11,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,84</t>
+          <t>0,0; 19,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 5,66</t>
+          <t>-11,96; 5,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 2,88</t>
+          <t>-31,57; 2,98</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 0,0</t>
+          <t>-32,58; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 0,0</t>
+          <t>-57,72; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 14,15</t>
+          <t>-11,24; 13,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,61</t>
+          <t>0,0; 24,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 5,69</t>
+          <t>-13,02; 5,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 2,96</t>
+          <t>-31,73; 3,06</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 0,0</t>
+          <t>-22,92; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,0</t>
+          <t>0,0; 22,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 12,93</t>
+          <t>-6,51; 14,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,55</t>
+          <t>0,0; 11,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 6,16</t>
+          <t>-7,72; 5,71</t>
         </is>
       </c>
     </row>
@@ -1344,27 +1344,27 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 0,0</t>
+          <t>-22,92; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,93</t>
+          <t>0,0; 29,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 14,81</t>
+          <t>-6,52; 18,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,35</t>
+          <t>0,0; 12,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 6,59</t>
+          <t>-7,74; 6,13</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,39</t>
+          <t>0,0; 17,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 7,2</t>
+          <t>-13,19; 7,12</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,87</t>
+          <t>0,0; 12,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 5,03</t>
+          <t>-7,25; 4,91</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,64</t>
+          <t>0,0; 21,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 7,75</t>
+          <t>-13,82; 7,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,47</t>
+          <t>0,0; 13,84</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 5,36</t>
+          <t>-7,37; 5,19</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 22,71</t>
+          <t>-6,42; 22,5</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,42</t>
+          <t>0,0; 30,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 9,04</t>
+          <t>-2,77; 8,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,5</t>
+          <t>0,0; 13,04</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 29,21</t>
+          <t>-6,49; 29,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,71</t>
+          <t>0,0; 44,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 9,93</t>
+          <t>-2,77; 9,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,5</t>
+          <t>0,0; 15,02</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 2,91</t>
+          <t>-10,89; 3,26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 5,42</t>
+          <t>-8,92; 5,32</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,42</t>
+          <t>-0,13; 7,87</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,75</t>
+          <t>-2,55; 6,52</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,25</t>
+          <t>-3,23; 4,36</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,89</t>
+          <t>-3,51; 4,19</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 3,04</t>
+          <t>-11,19; 3,54</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 5,86</t>
+          <t>-9,12; 5,81</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,33</t>
+          <t>-0,08; 8,62</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 7,42</t>
+          <t>-2,59; 7,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,62</t>
+          <t>-3,35; 4,7</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,26</t>
+          <t>-3,62; 4,52</t>
         </is>
       </c>
     </row>
